--- a/Evaluation/Results/hosseinpour_jans_final.xlsx
+++ b/Evaluation/Results/hosseinpour_jans_final.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mi98gr/Library/Mobile Documents/com~apple~CloudDocs/PhD/35_Deviation Patterns/01_pyCharm/Output/Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mi98gr/Library/Mobile Documents/com~apple~CloudDocs/PhD/35_Deviation Patterns/01_pyCharm/Evaluation_opt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589D6DD0-3546-994F-BE15-5DF94F64C460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4383988-7D82-C742-97AF-1D41B6041A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="7900" windowWidth="44920" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns wo cf" sheetId="5" r:id="rId1"/>
     <sheet name="Patterns" sheetId="1" r:id="rId2"/>
     <sheet name="Evaluation" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Time" sheetId="2" r:id="rId5"/>
+    <sheet name="export" sheetId="6" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Time" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="87">
   <si>
     <t>deviating</t>
   </si>
@@ -268,6 +269,36 @@
   </si>
   <si>
     <t>inserted_Goods Receipt, Invoice Receipt</t>
+  </si>
+  <si>
+    <t>pld_0</t>
+  </si>
+  <si>
+    <t>count_pld_0</t>
+  </si>
+  <si>
+    <t>pld_1</t>
+  </si>
+  <si>
+    <t>count_pld_1</t>
+  </si>
+  <si>
+    <t>pld_2</t>
+  </si>
+  <si>
+    <t>count_pld_2</t>
+  </si>
+  <si>
+    <t>pld_3</t>
+  </si>
+  <si>
+    <t>count_pld_3</t>
+  </si>
+  <si>
+    <t>swap_Approve PR, Create PO, Pay, Release PO, Sign PO and Invoice Receipt</t>
+  </si>
+  <si>
+    <t>swap_Approve PR, Create PO, Invoice Receipt, Pay, Release PO, Sign PO and Goods Receipt, Goods Receipt</t>
   </si>
 </sst>
 </file>
@@ -752,6 +783,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -783,15 +823,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5079,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F098C7EC-CBEC-CD47-A621-AFADBBE02EBB}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="V19" sqref="V19:W19"/>
     </sheetView>
   </sheetViews>
@@ -6222,6 +6253,686 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CB9F62-D459-0C43-A0C0-54FD7FB0B109}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C503F6E1-B00D-5349-B6D1-8B559B46838C}">
   <dimension ref="B1:R36"/>
   <sheetViews>
@@ -6239,27 +6950,27 @@
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
@@ -6311,7 +7022,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -6379,7 +7090,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="11" t="s">
         <v>53</v>
       </c>
@@ -6445,7 +7156,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
@@ -6511,7 +7222,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="39"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>55</v>
       </c>
@@ -6577,7 +7288,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="39"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="11" t="s">
         <v>56</v>
       </c>
@@ -6643,7 +7354,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="15">
         <v>0</v>
       </c>
@@ -6837,14 +7548,14 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6876,7 +7587,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -6916,7 +7627,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="39"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="21" t="s">
         <v>53</v>
       </c>
@@ -6954,7 +7665,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="39"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="21" t="s">
         <v>54</v>
       </c>
@@ -6992,7 +7703,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="39"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="21" t="s">
         <v>55</v>
       </c>
@@ -7030,7 +7741,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="46"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="26" t="s">
         <v>56</v>
       </c>
@@ -7068,7 +7779,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="50" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -7108,7 +7819,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="21" t="s">
         <v>53</v>
       </c>
@@ -7146,7 +7857,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="48"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -7183,7 +7894,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="48"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="21" t="s">
         <v>55</v>
       </c>
@@ -7220,7 +7931,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="49"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="26" t="s">
         <v>56</v>
       </c>
@@ -7257,7 +7968,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="29" t="s">
@@ -7297,7 +8008,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="48"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="21" t="s">
         <v>53</v>
       </c>
@@ -7335,7 +8046,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="48"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="21" t="s">
         <v>54</v>
       </c>
@@ -7373,7 +8084,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="21" t="s">
         <v>55</v>
       </c>
@@ -7411,7 +8122,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="26" t="s">
         <v>56</v>
       </c>
@@ -7449,7 +8160,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -7489,7 +8200,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="51"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="21" t="s">
         <v>53</v>
       </c>
@@ -7527,7 +8238,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="51"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="21" t="s">
         <v>54</v>
       </c>
@@ -7565,7 +8276,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="51"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="21" t="s">
         <v>55</v>
       </c>
@@ -7603,7 +8314,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="52"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="22" t="s">
         <v>56</v>
       </c>
@@ -7678,7 +8389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
